--- a/data/tournament.xlsx
+++ b/data/tournament.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -55,11 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +468,11 @@
           <t>name</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>dt_insertion</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -487,6 +496,9 @@
         <is>
           <t>Brasileirão Série A</t>
         </is>
+      </c>
+      <c r="G2" s="2" t="n">
+        <v>45489.94324074074</v>
       </c>
     </row>
   </sheetData>

--- a/data/tournament.xlsx
+++ b/data/tournament.xlsx
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="G2" s="2" t="n">
-        <v>45489.94324074074</v>
+        <v>45492.67001157408</v>
       </c>
     </row>
   </sheetData>
